--- a/ML/LogR.xlsx
+++ b/ML/LogR.xlsx
@@ -29,22 +29,22 @@
     <t xml:space="preserve">Regularised LogR</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867924528301887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819407008086253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881401617250674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816666666666667</t>
+    <t xml:space="preserve">0.954666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855932203389831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822033898305085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864406779661017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952</t>
   </si>
 </sst>
 </file>
@@ -464,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -500,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
